--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Desktop\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9833B5-6133-41D7-917C-99AA4FE21839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69245B8C-DD18-4AEE-9E1C-CB8ECE31AEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15990" windowHeight="24990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="460">
   <si>
     <t>Название:</t>
   </si>
@@ -1544,12 +1544,24 @@
   <si>
     <t>Автоматизировано</t>
   </si>
+  <si>
+    <t>Новость сохраняется, в поле Title и Description спец символы</t>
+  </si>
+  <si>
+    <t>Новость создается, в названии и описание спец символы</t>
+  </si>
+  <si>
+    <t>Заявка создается. В поле Description и Title спец. Символы</t>
+  </si>
+  <si>
+    <t>Ссылка не открывается</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1578,8 +1590,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1631,6 +1650,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2124,170 +2155,230 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2295,8 +2386,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2307,38 +2401,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2349,42 +2419,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2394,15 +2431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2685,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C161" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L162" sqref="L162"/>
+    <sheetView tabSelected="1" topLeftCell="D115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2726,7 +2755,7 @@
       <c r="H1" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="53" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2750,11 +2779,11 @@
       <c r="G2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="111" t="s">
-        <v>407</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="L2" s="113" t="s">
         <v>407</v>
       </c>
     </row>
@@ -2779,10 +2808,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="16"/>
-      <c r="I3" s="98" t="s">
-        <v>407</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="I3" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="L3" s="113" t="s">
         <v>454</v>
       </c>
     </row>
@@ -2807,10 +2836,10 @@
         <v>19</v>
       </c>
       <c r="H4" s="16"/>
-      <c r="I4" s="98" t="s">
-        <v>407</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="I4" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="L4" s="113" t="s">
         <v>455</v>
       </c>
     </row>
@@ -2835,8 +2864,8 @@
         <v>23</v>
       </c>
       <c r="H5" s="16"/>
-      <c r="I5" s="98" t="s">
-        <v>407</v>
+      <c r="I5" s="51" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -2860,8 +2889,8 @@
         <v>23</v>
       </c>
       <c r="H6" s="16"/>
-      <c r="I6" s="98" t="s">
-        <v>407</v>
+      <c r="I6" s="51" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -2885,24 +2914,24 @@
         <v>30</v>
       </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="102" t="s">
-        <v>407</v>
+      <c r="I7" s="51" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="57">
+        <v>7</v>
+      </c>
+      <c r="B8" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="14" t="s">
@@ -2911,55 +2940,55 @@
       <c r="G8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="108" t="s">
+      <c r="H8" s="66"/>
+      <c r="I8" s="110" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="28" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="109"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="111"/>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="109"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="111"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="110"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="112"/>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -2984,259 +3013,259 @@
         <v>44</v>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="98" t="s">
-        <v>407</v>
+      <c r="I12" s="51" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="57">
         <v>9</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="100" t="s">
-        <v>407</v>
+      <c r="H13" s="82"/>
+      <c r="I13" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="99"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="28" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="98" t="s">
-        <v>407</v>
+      <c r="H15" s="25"/>
+      <c r="I15" s="51" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+      <c r="A16" s="72">
         <v>10</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="43" t="s">
+      <c r="D16" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="100" t="s">
-        <v>407</v>
+      <c r="H16" s="78"/>
+      <c r="I16" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="28" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="99"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="70"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="53">
+      <c r="A18" s="35">
         <v>11</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="44" t="s">
+      <c r="D18" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="98" t="s">
-        <v>407</v>
+      <c r="H18" s="39"/>
+      <c r="I18" s="51" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
+      <c r="A19" s="28">
         <v>12</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="59" t="s">
+      <c r="D19" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="98" t="s">
-        <v>407</v>
+      <c r="H19" s="33"/>
+      <c r="I19" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="A20" s="72">
         <v>13</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="43" t="s">
+      <c r="D20" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="100" t="s">
-        <v>407</v>
-      </c>
+      <c r="H20" s="78"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="59" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="99"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="51" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
+      <c r="A22" s="72">
         <v>14</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="43" t="s">
+      <c r="D22" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="100" t="s">
-        <v>407</v>
+      <c r="H22" s="78"/>
+      <c r="I22" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="63" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="99"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="70"/>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="57">
         <v>15</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="22" t="s">
+      <c r="D24" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="60" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="14" t="s">
@@ -3245,40 +3274,42 @@
       <c r="G24" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="100" t="s">
-        <v>407</v>
+      <c r="H24" s="82"/>
+      <c r="I24" s="51" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="13" t="s">
         <v>77</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="99"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="69" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="65">
+      <c r="A26" s="89">
         <v>16</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="22" t="s">
+      <c r="D26" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="60" t="s">
         <v>81</v>
       </c>
       <c r="F26" s="14" t="s">
@@ -3288,16 +3319,14 @@
         <v>83</v>
       </c>
       <c r="H26" s="16"/>
-      <c r="I26" s="100" t="s">
-        <v>407</v>
-      </c>
+      <c r="I26" s="70"/>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="14" t="s">
         <v>84</v>
       </c>
@@ -3305,22 +3334,24 @@
         <v>85</v>
       </c>
       <c r="H27" s="16"/>
-      <c r="I27" s="99"/>
+      <c r="I27" s="51" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="57">
         <v>17</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="22" t="s">
+      <c r="D28" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="60" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="14" t="s">
@@ -3329,40 +3360,42 @@
       <c r="G28" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="67"/>
-      <c r="I28" s="100" t="s">
-        <v>407</v>
+      <c r="H28" s="87" t="s">
+        <v>459</v>
+      </c>
+      <c r="I28" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="14" t="s">
         <v>90</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H29" s="68"/>
-      <c r="I29" s="101"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="57">
         <v>18</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="22" t="s">
+      <c r="D30" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="60" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="14" t="s">
@@ -3371,25 +3404,27 @@
       <c r="G30" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="112"/>
-      <c r="I30" s="100" t="s">
-        <v>407</v>
+      <c r="H30" s="87" t="s">
+        <v>459</v>
+      </c>
+      <c r="I30" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="32"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="14" t="s">
         <v>94</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="113"/>
-      <c r="I31" s="101"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="109"/>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
@@ -3415,7 +3450,7 @@
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="9" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
@@ -3442,10 +3477,10 @@
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>21</v>
       </c>
@@ -3469,10 +3504,10 @@
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>22</v>
       </c>
@@ -3496,10 +3531,10 @@
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>23</v>
       </c>
@@ -3523,7 +3558,7 @@
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="9" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3550,23 +3585,23 @@
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="9" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="57">
         <v>25</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="22" t="s">
+      <c r="D38" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="60" t="s">
         <v>123</v>
       </c>
       <c r="F38" s="14" t="s">
@@ -3576,16 +3611,16 @@
         <v>124</v>
       </c>
       <c r="H38" s="16"/>
-      <c r="I38" s="100" t="s">
-        <v>407</v>
+      <c r="I38" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="32"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="62"/>
       <c r="F39" s="14" t="s">
         <v>125</v>
       </c>
@@ -3593,22 +3628,22 @@
         <v>126</v>
       </c>
       <c r="H39" s="16"/>
-      <c r="I39" s="99"/>
+      <c r="I39" s="70"/>
     </row>
     <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
+      <c r="A40" s="57">
         <v>26</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="22" t="s">
+      <c r="D40" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="60" t="s">
         <v>110</v>
       </c>
       <c r="F40" s="14" t="s">
@@ -3617,40 +3652,40 @@
       <c r="G40" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="100" t="s">
-        <v>407</v>
+      <c r="H40" s="82"/>
+      <c r="I40" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="32"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="62"/>
       <c r="F41" s="14" t="s">
         <v>130</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="99"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="70"/>
     </row>
     <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
+      <c r="A42" s="57">
         <v>27</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="22" t="s">
+      <c r="D42" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="60" t="s">
         <v>110</v>
       </c>
       <c r="F42" s="14" t="s">
@@ -3659,51 +3694,51 @@
       <c r="G42" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="100" t="s">
-        <v>407</v>
+      <c r="H42" s="82"/>
+      <c r="I42" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="26"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="61"/>
       <c r="F43" s="14" t="s">
         <v>135</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="101"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="32"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="62"/>
       <c r="F44" s="13" t="s">
         <v>137</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="99"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="70"/>
     </row>
     <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
+      <c r="A45" s="57">
         <v>28</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="22" t="s">
+      <c r="C45" s="61"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="60" t="s">
         <v>110</v>
       </c>
       <c r="F45" s="14" t="s">
@@ -3712,53 +3747,53 @@
       <c r="G45" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="100" t="s">
-        <v>407</v>
+      <c r="H45" s="82"/>
+      <c r="I45" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="26"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="61"/>
       <c r="F46" s="14" t="s">
         <v>135</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="101"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="32"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="62"/>
       <c r="F47" s="13" t="s">
         <v>140</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="99"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
+      <c r="A48" s="57">
         <v>29</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="22" t="s">
+      <c r="C48" s="61"/>
+      <c r="D48" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="60" t="s">
         <v>123</v>
       </c>
       <c r="F48" s="14" t="s">
@@ -3767,53 +3802,53 @@
       <c r="G48" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="H48" s="24"/>
-      <c r="I48" s="100" t="s">
-        <v>407</v>
+      <c r="H48" s="82"/>
+      <c r="I48" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="26"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="14" t="s">
         <v>145</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H49" s="30"/>
-      <c r="I49" s="101"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="32"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="62"/>
       <c r="F50" s="14" t="s">
         <v>147</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="99"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="70"/>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
+      <c r="A51" s="57">
         <v>30</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="22" t="s">
+      <c r="C51" s="61"/>
+      <c r="D51" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="60" t="s">
         <v>123</v>
       </c>
       <c r="F51" s="14" t="s">
@@ -3822,55 +3857,55 @@
       <c r="G51" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="100" t="s">
-        <v>407</v>
+      <c r="H51" s="82"/>
+      <c r="I51" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="26"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="61"/>
       <c r="F52" s="14" t="s">
         <v>150</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="101"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="109"/>
     </row>
     <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="32"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="62"/>
       <c r="F53" s="14" t="s">
         <v>147</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="H53" s="34"/>
-      <c r="I53" s="99"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="70"/>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="21">
+      <c r="A54" s="57">
         <v>31</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="22" t="s">
+      <c r="D54" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="60" t="s">
         <v>154</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -3879,40 +3914,40 @@
       <c r="G54" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="100" t="s">
-        <v>407</v>
+      <c r="H54" s="82"/>
+      <c r="I54" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="32"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="62"/>
       <c r="F55" s="14" t="s">
         <v>157</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="H55" s="34"/>
-      <c r="I55" s="99"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="70"/>
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="21">
+      <c r="A56" s="57">
         <v>32</v>
       </c>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="22" t="s">
+      <c r="D56" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="60" t="s">
         <v>154</v>
       </c>
       <c r="F56" s="13" t="s">
@@ -3921,40 +3956,40 @@
       <c r="G56" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H56" s="24"/>
-      <c r="I56" s="100" t="s">
-        <v>407</v>
+      <c r="H56" s="82"/>
+      <c r="I56" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="32"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="62"/>
       <c r="F57" s="14" t="s">
         <v>160</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="H57" s="34"/>
-      <c r="I57" s="99"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="70"/>
     </row>
     <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="40">
+      <c r="A58" s="72">
         <v>33</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="22" t="s">
+      <c r="D58" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="60" t="s">
         <v>154</v>
       </c>
       <c r="F58" s="13" t="s">
@@ -3963,86 +3998,86 @@
       <c r="G58" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H58" s="24"/>
-      <c r="I58" s="100" t="s">
-        <v>407</v>
+      <c r="H58" s="82"/>
+      <c r="I58" s="69" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="26"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="61"/>
       <c r="F59" s="13" t="s">
         <v>164</v>
       </c>
       <c r="G59" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="34"/>
-      <c r="I59" s="99"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="70"/>
     </row>
     <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="71">
+      <c r="A60" s="21">
         <v>34</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="72" t="s">
+      <c r="C60" s="61"/>
+      <c r="D60" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="26"/>
+      <c r="E60" s="61"/>
       <c r="F60" s="18" t="s">
         <v>168</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H60" s="39"/>
+      <c r="H60" s="25"/>
       <c r="I60" s="9" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="73">
+      <c r="A61" s="44">
         <v>35</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="74" t="s">
+      <c r="C61" s="62"/>
+      <c r="D61" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="32"/>
-      <c r="F61" s="63" t="s">
+      <c r="E61" s="62"/>
+      <c r="F61" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="G61" s="63" t="s">
+      <c r="G61" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="H61" s="75"/>
+      <c r="H61" s="46"/>
       <c r="I61" s="9" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="21">
+      <c r="A62" s="57">
         <v>36</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="D62" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="22" t="s">
+      <c r="D62" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="60" t="s">
         <v>174</v>
       </c>
       <c r="F62" s="14" t="s">
@@ -4051,25 +4086,27 @@
       <c r="G62" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="H62" s="24"/>
-      <c r="I62" s="100" t="s">
-        <v>407</v>
+      <c r="H62" s="82"/>
+      <c r="I62" s="9" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="32"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="62"/>
       <c r="F63" s="14" t="s">
         <v>177</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="H63" s="34"/>
-      <c r="I63" s="99"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="9" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
@@ -4095,10 +4132,10 @@
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>38</v>
       </c>
@@ -4111,7 +4148,7 @@
       <c r="D65" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="76" t="s">
+      <c r="E65" s="96" t="s">
         <v>185</v>
       </c>
       <c r="F65" s="14" t="s">
@@ -4138,7 +4175,7 @@
       <c r="D66" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="77"/>
+      <c r="E66" s="97"/>
       <c r="F66" s="14" t="s">
         <v>190</v>
       </c>
@@ -4147,285 +4184,288 @@
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="9" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
+      <c r="A67" s="57">
         <v>40</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="D67" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="77"/>
+      <c r="D67" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="97"/>
       <c r="F67" s="14" t="s">
         <v>193</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="H67" s="24"/>
-      <c r="I67" s="100" t="s">
-        <v>407</v>
+      <c r="H67" s="82"/>
+      <c r="I67" s="9" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="77"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="97"/>
       <c r="F68" s="14" t="s">
         <v>195</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="H68" s="34"/>
-      <c r="I68" s="99"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="9" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A69" s="71">
+      <c r="A69" s="21">
         <v>41</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="78" t="s">
+      <c r="D69" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="77"/>
+      <c r="E69" s="97"/>
       <c r="F69" s="18" t="s">
         <v>199</v>
       </c>
       <c r="G69" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="H69" s="39"/>
       <c r="I69" s="9" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A70" s="79">
+      <c r="A70" s="47">
         <v>42</v>
       </c>
-      <c r="B70" s="80" t="s">
+      <c r="B70" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="C70" s="80" t="s">
+      <c r="C70" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="D70" s="81" t="s">
+      <c r="D70" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="77"/>
-      <c r="F70" s="80" t="s">
+      <c r="E70" s="97"/>
+      <c r="F70" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="G70" s="80" t="s">
+      <c r="G70" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="H70" s="82"/>
+      <c r="H70" s="54" t="s">
+        <v>458</v>
+      </c>
       <c r="I70" s="9" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A71" s="21">
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="57">
         <v>43</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="77"/>
+      <c r="E71" s="97"/>
       <c r="F71" s="10" t="s">
         <v>206</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="H71" s="24"/>
+      <c r="H71" s="82"/>
       <c r="I71" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="77"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="58"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="97"/>
       <c r="F72" s="14" t="s">
         <v>208</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="H72" s="30"/>
+      <c r="H72" s="91"/>
       <c r="I72" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="77"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="59"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="97"/>
       <c r="F73" s="14" t="s">
         <v>210</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="H73" s="34"/>
+      <c r="H73" s="83"/>
       <c r="I73" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A74" s="21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="57">
         <v>44</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="77"/>
+      <c r="D74" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="97"/>
       <c r="F74" s="14" t="s">
         <v>206</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="H74" s="83"/>
+      <c r="H74" s="94"/>
       <c r="I74" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="77"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="59"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="97"/>
       <c r="F75" s="14" t="s">
         <v>213</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="H75" s="84"/>
+      <c r="H75" s="95"/>
       <c r="I75" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A76" s="21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="57">
         <v>45</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="D76" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="77"/>
+      <c r="D76" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="97"/>
       <c r="F76" s="13" t="s">
         <v>217</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H76" s="83"/>
+      <c r="H76" s="94"/>
       <c r="I76" s="9" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="77"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="97"/>
       <c r="F77" s="13" t="s">
         <v>219</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="H77" s="84"/>
+      <c r="H77" s="95"/>
       <c r="I77" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A78" s="21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="57">
         <v>46</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="D78" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="77"/>
+      <c r="D78" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="97"/>
       <c r="F78" s="13" t="s">
         <v>217</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H78" s="83"/>
+      <c r="H78" s="94"/>
       <c r="I78" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="85"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="59"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="98"/>
       <c r="F79" s="13" t="s">
         <v>223</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="H79" s="84"/>
+      <c r="H79" s="95"/>
       <c r="I79" s="9" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>47</v>
       </c>
@@ -4438,7 +4478,7 @@
       <c r="D80" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="60" t="s">
         <v>29</v>
       </c>
       <c r="F80" s="14" t="s">
@@ -4449,65 +4489,65 @@
       </c>
       <c r="H80" s="16"/>
       <c r="I80" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="57">
         <v>48</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="43" t="s">
+      <c r="C81" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D81" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="44" t="s">
+      <c r="D81" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="61"/>
+      <c r="F81" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G81" s="56" t="s">
+      <c r="G81" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H81" s="46"/>
+      <c r="H81" s="78"/>
       <c r="I81" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="59" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="59"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G82" s="56" t="s">
+      <c r="G82" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H82" s="52"/>
+      <c r="H82" s="79"/>
       <c r="I82" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A83" s="21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="57">
         <v>49</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="C83" s="43" t="s">
+      <c r="C83" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="D83" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="43" t="s">
+      <c r="D83" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="74" t="s">
         <v>229</v>
       </c>
       <c r="F83" s="14" t="s">
@@ -4516,27 +4556,27 @@
       <c r="G83" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H83" s="86"/>
+      <c r="H83" s="99"/>
       <c r="I83" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="32"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="59"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="62"/>
       <c r="F84" s="14" t="s">
         <v>232</v>
       </c>
       <c r="G84" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="H84" s="84"/>
+      <c r="H84" s="95"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>50</v>
       </c>
@@ -4560,10 +4600,10 @@
       </c>
       <c r="H85" s="16"/>
       <c r="I85" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>51</v>
       </c>
@@ -4576,7 +4616,7 @@
       <c r="D86" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="60" t="s">
         <v>239</v>
       </c>
       <c r="F86" s="13" t="s">
@@ -4587,10 +4627,10 @@
       </c>
       <c r="H86" s="16"/>
       <c r="I86" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>52</v>
       </c>
@@ -4603,7 +4643,7 @@
       <c r="D87" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="26"/>
+      <c r="E87" s="61"/>
       <c r="F87" s="13" t="s">
         <v>217</v>
       </c>
@@ -4612,11 +4652,11 @@
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A88" s="87">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="50">
         <v>53</v>
       </c>
       <c r="B88" s="12" t="s">
@@ -4628,7 +4668,7 @@
       <c r="D88" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="26"/>
+      <c r="E88" s="61"/>
       <c r="F88" s="14" t="s">
         <v>247</v>
       </c>
@@ -4637,10 +4677,10 @@
       </c>
       <c r="H88" s="16"/>
       <c r="I88" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>54</v>
       </c>
@@ -4653,7 +4693,7 @@
       <c r="D89" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="26"/>
+      <c r="E89" s="61"/>
       <c r="F89" s="14" t="s">
         <v>251</v>
       </c>
@@ -4662,10 +4702,10 @@
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>55</v>
       </c>
@@ -4678,7 +4718,7 @@
       <c r="D90" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="26"/>
+      <c r="E90" s="61"/>
       <c r="F90" s="14" t="s">
         <v>255</v>
       </c>
@@ -4687,10 +4727,10 @@
       </c>
       <c r="H90" s="16"/>
       <c r="I90" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>56</v>
       </c>
@@ -4703,7 +4743,7 @@
       <c r="D91" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="32"/>
+      <c r="E91" s="62"/>
       <c r="F91" s="14" t="s">
         <v>259</v>
       </c>
@@ -4711,9 +4751,11 @@
         <v>256</v>
       </c>
       <c r="H91" s="16"/>
-      <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+      <c r="I91" s="9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>57</v>
       </c>
@@ -4736,22 +4778,24 @@
         <v>263</v>
       </c>
       <c r="H92" s="16"/>
-      <c r="I92" s="9"/>
+      <c r="I92" s="9" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="21">
+      <c r="A93" s="57">
         <v>58</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="D93" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="22" t="s">
+      <c r="D93" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="60" t="s">
         <v>266</v>
       </c>
       <c r="F93" s="13" t="s">
@@ -4760,38 +4804,40 @@
       <c r="G93" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H93" s="83"/>
+      <c r="H93" s="94"/>
       <c r="I93" s="9"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="32"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="62"/>
       <c r="F94" s="13" t="s">
         <v>268</v>
       </c>
       <c r="G94" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H94" s="84"/>
-      <c r="I94" s="9"/>
-    </row>
-    <row r="95" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A95" s="21">
+      <c r="H94" s="95"/>
+      <c r="I94" s="9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="57">
         <v>59</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="D95" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="22" t="s">
+      <c r="D95" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="60" t="s">
         <v>266</v>
       </c>
       <c r="F95" s="14" t="s">
@@ -4800,29 +4846,29 @@
       <c r="G95" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="H95" s="83"/>
+      <c r="H95" s="94"/>
       <c r="I95" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="32"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="59"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="62"/>
       <c r="F96" s="14" t="s">
         <v>273</v>
       </c>
       <c r="G96" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="H96" s="84"/>
+      <c r="H96" s="95"/>
       <c r="I96" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>60</v>
       </c>
@@ -4846,10 +4892,10 @@
       </c>
       <c r="H97" s="16"/>
       <c r="I97" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>61</v>
       </c>
@@ -4862,7 +4908,7 @@
       <c r="D98" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="22" t="s">
+      <c r="E98" s="60" t="s">
         <v>280</v>
       </c>
       <c r="F98" s="14" t="s">
@@ -4873,10 +4919,10 @@
       </c>
       <c r="H98" s="16"/>
       <c r="I98" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>62</v>
       </c>
@@ -4889,7 +4935,7 @@
       <c r="D99" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="26"/>
+      <c r="E99" s="61"/>
       <c r="F99" s="14" t="s">
         <v>285</v>
       </c>
@@ -4898,7 +4944,7 @@
       </c>
       <c r="H99" s="16"/>
       <c r="I99" s="9" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4914,7 +4960,7 @@
       <c r="D100" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="26"/>
+      <c r="E100" s="61"/>
       <c r="F100" s="14" t="s">
         <v>451</v>
       </c>
@@ -4923,10 +4969,10 @@
       </c>
       <c r="H100" s="16"/>
       <c r="I100" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>64</v>
       </c>
@@ -4939,7 +4985,7 @@
       <c r="D101" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="26"/>
+      <c r="E101" s="61"/>
       <c r="F101" s="14" t="s">
         <v>291</v>
       </c>
@@ -4948,10 +4994,10 @@
       </c>
       <c r="H101" s="16"/>
       <c r="I101" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>65</v>
       </c>
@@ -4964,7 +5010,7 @@
       <c r="D102" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="26"/>
+      <c r="E102" s="61"/>
       <c r="F102" s="14" t="s">
         <v>295</v>
       </c>
@@ -4973,10 +5019,10 @@
       </c>
       <c r="H102" s="16"/>
       <c r="I102" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>66</v>
       </c>
@@ -4989,7 +5035,7 @@
       <c r="D103" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="32"/>
+      <c r="E103" s="62"/>
       <c r="F103" s="13" t="s">
         <v>298</v>
       </c>
@@ -5001,7 +5047,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>67</v>
       </c>
@@ -5025,23 +5071,23 @@
       </c>
       <c r="H104" s="16"/>
       <c r="I104" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A105" s="21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="57">
         <v>70</v>
       </c>
-      <c r="B105" s="35" t="s">
+      <c r="B105" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" s="60" t="s">
         <v>305</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="22" t="s">
+      <c r="E105" s="60" t="s">
         <v>306</v>
       </c>
       <c r="F105" s="14" t="s">
@@ -5050,31 +5096,31 @@
       <c r="G105" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="H105" s="83"/>
+      <c r="H105" s="94"/>
       <c r="I105" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A106" s="31"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="32"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A106" s="59"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="62"/>
       <c r="D106" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E106" s="32"/>
+      <c r="E106" s="62"/>
       <c r="F106" s="14" t="s">
         <v>309</v>
       </c>
       <c r="G106" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="H106" s="84"/>
+      <c r="H106" s="95"/>
       <c r="I106" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>71</v>
       </c>
@@ -5098,23 +5144,23 @@
       </c>
       <c r="H107" s="16"/>
       <c r="I107" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A108" s="21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="57">
         <v>72</v>
       </c>
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="80" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C108" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="D108" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="22" t="s">
+      <c r="D108" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="60" t="s">
         <v>306</v>
       </c>
       <c r="F108" s="14" t="s">
@@ -5123,29 +5169,29 @@
       <c r="G108" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="H108" s="83"/>
+      <c r="H108" s="94"/>
       <c r="I108" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="31"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="26"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A109" s="59"/>
+      <c r="B109" s="81"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="61"/>
       <c r="F109" s="14" t="s">
         <v>317</v>
       </c>
       <c r="G109" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H109" s="84"/>
+      <c r="H109" s="95"/>
       <c r="I109" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>73</v>
       </c>
@@ -5158,7 +5204,7 @@
       <c r="D110" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="26"/>
+      <c r="E110" s="61"/>
       <c r="F110" s="14" t="s">
         <v>321</v>
       </c>
@@ -5167,10 +5213,10 @@
       </c>
       <c r="H110" s="16"/>
       <c r="I110" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>74</v>
       </c>
@@ -5183,7 +5229,7 @@
       <c r="D111" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="26"/>
+      <c r="E111" s="61"/>
       <c r="F111" s="13" t="s">
         <v>325</v>
       </c>
@@ -5192,7 +5238,7 @@
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="9" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="195" x14ac:dyDescent="0.25">
@@ -5202,36 +5248,38 @@
       <c r="B112" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="60" t="s">
         <v>328</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E112" s="26"/>
+      <c r="E112" s="61"/>
       <c r="F112" s="14" t="s">
         <v>329</v>
       </c>
       <c r="G112" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="H112" s="88"/>
+      <c r="H112" s="56" t="s">
+        <v>457</v>
+      </c>
       <c r="I112" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>76</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C113" s="26"/>
+      <c r="C113" s="61"/>
       <c r="D113" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E113" s="26"/>
+      <c r="E113" s="61"/>
       <c r="F113" s="14" t="s">
         <v>332</v>
       </c>
@@ -5240,21 +5288,21 @@
       </c>
       <c r="H113" s="16"/>
       <c r="I113" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>77</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C114" s="26"/>
+      <c r="C114" s="61"/>
       <c r="D114" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E114" s="26"/>
+      <c r="E114" s="61"/>
       <c r="F114" s="14" t="s">
         <v>335</v>
       </c>
@@ -5263,21 +5311,21 @@
       </c>
       <c r="H114" s="16"/>
       <c r="I114" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>78</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C115" s="32"/>
+      <c r="C115" s="62"/>
       <c r="D115" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E115" s="26"/>
+      <c r="E115" s="61"/>
       <c r="F115" s="14" t="s">
         <v>338</v>
       </c>
@@ -5286,65 +5334,65 @@
       </c>
       <c r="H115" s="16"/>
       <c r="I115" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A116" s="21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="57">
         <v>79</v>
       </c>
-      <c r="B116" s="35" t="s">
+      <c r="B116" s="80" t="s">
         <v>339</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="C116" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="D116" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="26"/>
+      <c r="D116" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="61"/>
       <c r="F116" s="13" t="s">
         <v>341</v>
       </c>
       <c r="G116" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="H116" s="83"/>
+      <c r="H116" s="94"/>
       <c r="I116" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A117" s="31"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="26"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="59"/>
+      <c r="B117" s="81"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="65"/>
+      <c r="E117" s="61"/>
       <c r="F117" s="13" t="s">
         <v>343</v>
       </c>
       <c r="G117" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="H117" s="84"/>
+      <c r="H117" s="95"/>
       <c r="I117" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A118" s="21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="57">
         <v>80</v>
       </c>
-      <c r="B118" s="22" t="s">
+      <c r="B118" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="C118" s="22" t="s">
+      <c r="C118" s="60" t="s">
         <v>346</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E118" s="26"/>
+      <c r="E118" s="61"/>
       <c r="F118" s="13" t="s">
         <v>341</v>
       </c>
@@ -5353,17 +5401,17 @@
       </c>
       <c r="H118" s="16"/>
       <c r="I118" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="31"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="59"/>
+      <c r="B119" s="62"/>
+      <c r="C119" s="62"/>
       <c r="D119" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="32"/>
+      <c r="E119" s="62"/>
       <c r="F119" s="13" t="s">
         <v>347</v>
       </c>
@@ -5372,10 +5420,10 @@
       </c>
       <c r="H119" s="16"/>
       <c r="I119" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>81</v>
       </c>
@@ -5399,10 +5447,10 @@
       </c>
       <c r="H120" s="16"/>
       <c r="I120" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>82</v>
       </c>
@@ -5415,7 +5463,7 @@
       <c r="D121" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="22" t="s">
+      <c r="E121" s="60" t="s">
         <v>355</v>
       </c>
       <c r="F121" s="14" t="s">
@@ -5426,10 +5474,10 @@
       </c>
       <c r="H121" s="16"/>
       <c r="I121" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>83</v>
       </c>
@@ -5442,7 +5490,7 @@
       <c r="D122" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E122" s="26"/>
+      <c r="E122" s="61"/>
       <c r="F122" s="14" t="s">
         <v>360</v>
       </c>
@@ -5451,7 +5499,7 @@
       </c>
       <c r="H122" s="16"/>
       <c r="I122" s="9" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5467,7 +5515,7 @@
       <c r="D123" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="26"/>
+      <c r="E123" s="61"/>
       <c r="F123" s="14" t="s">
         <v>452</v>
       </c>
@@ -5476,149 +5524,143 @@
       </c>
       <c r="H123" s="16"/>
       <c r="I123" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A124" s="21">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A124" s="57">
         <v>85</v>
       </c>
-      <c r="B124" s="22" t="s">
+      <c r="B124" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C124" s="60" t="s">
         <v>365</v>
       </c>
-      <c r="D124" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="26"/>
+      <c r="D124" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="61"/>
       <c r="F124" s="14" t="s">
         <v>366</v>
       </c>
       <c r="G124" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="H124" s="83"/>
-      <c r="I124" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A125" s="31"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="26"/>
+      <c r="H124" s="94"/>
+      <c r="I124" s="69" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="59"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="61"/>
       <c r="F125" s="14" t="s">
         <v>368</v>
       </c>
       <c r="G125" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="H125" s="84"/>
-      <c r="I125" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A126" s="21">
+      <c r="H125" s="95"/>
+      <c r="I125" s="70"/>
+    </row>
+    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="57">
         <v>86</v>
       </c>
-      <c r="B126" s="35" t="s">
+      <c r="B126" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="C126" s="60" t="s">
         <v>371</v>
       </c>
-      <c r="D126" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="26"/>
+      <c r="D126" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="61"/>
       <c r="F126" s="13" t="s">
         <v>372</v>
       </c>
       <c r="G126" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="H126" s="83"/>
-      <c r="I126" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A127" s="31"/>
-      <c r="B127" s="37"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="26"/>
+      <c r="H126" s="94"/>
+      <c r="I126" s="69" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="59"/>
+      <c r="B127" s="81"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="61"/>
       <c r="F127" s="13" t="s">
         <v>164</v>
       </c>
       <c r="G127" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="H127" s="84"/>
-      <c r="I127" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A128" s="21">
+      <c r="H127" s="95"/>
+      <c r="I127" s="70"/>
+    </row>
+    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="57">
         <v>87</v>
       </c>
-      <c r="B128" s="35" t="s">
+      <c r="B128" s="80" t="s">
         <v>375</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="C128" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="D128" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" s="26"/>
+      <c r="D128" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="61"/>
       <c r="F128" s="13" t="s">
         <v>372</v>
       </c>
       <c r="G128" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="H128" s="83"/>
-      <c r="I128" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A129" s="31"/>
-      <c r="B129" s="37"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="26"/>
+      <c r="H128" s="94"/>
+      <c r="I128" s="69" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="59"/>
+      <c r="B129" s="81"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="65"/>
+      <c r="E129" s="61"/>
       <c r="F129" s="13" t="s">
         <v>164</v>
       </c>
       <c r="G129" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="H129" s="84"/>
-      <c r="I129" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="H129" s="95"/>
+      <c r="I129" s="70"/>
+    </row>
+    <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>88</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="C130" s="35" t="s">
+      <c r="C130" s="80" t="s">
         <v>328</v>
       </c>
       <c r="D130" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E130" s="26"/>
+      <c r="E130" s="61"/>
       <c r="F130" s="14" t="s">
         <v>380</v>
       </c>
@@ -5627,30 +5669,30 @@
       </c>
       <c r="H130" s="16"/>
       <c r="I130" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>89</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="C131" s="36"/>
+      <c r="C131" s="86"/>
       <c r="D131" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E131" s="26"/>
+      <c r="E131" s="61"/>
       <c r="F131" s="14" t="s">
         <v>383</v>
       </c>
       <c r="G131" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="H131" s="16"/>
+      <c r="H131" s="20"/>
       <c r="I131" s="9" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5660,120 +5702,118 @@
       <c r="B132" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="C132" s="37"/>
+      <c r="C132" s="81"/>
       <c r="D132" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E132" s="26"/>
+      <c r="E132" s="61"/>
       <c r="F132" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="G132" s="14" t="s">
+      <c r="G132" s="55" t="s">
         <v>386</v>
       </c>
-      <c r="H132" s="88"/>
-      <c r="I132" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A133" s="21">
+      <c r="H132" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="I132" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="57">
         <v>91</v>
       </c>
-      <c r="B133" s="35" t="s">
+      <c r="B133" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="C133" s="22" t="s">
+      <c r="C133" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="D133" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="26"/>
+      <c r="D133" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="61"/>
       <c r="F133" s="13" t="s">
         <v>298</v>
       </c>
       <c r="G133" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="H133" s="83"/>
-      <c r="I133" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A134" s="31"/>
-      <c r="B134" s="37"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="26"/>
+      <c r="H133" s="99"/>
+      <c r="I133" s="69" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="59"/>
+      <c r="B134" s="81"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="65"/>
+      <c r="E134" s="61"/>
       <c r="F134" s="13" t="s">
         <v>390</v>
       </c>
       <c r="G134" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="H134" s="84"/>
-      <c r="I134" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A135" s="21">
+      <c r="H134" s="95"/>
+      <c r="I134" s="71"/>
+    </row>
+    <row r="135" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="57">
         <v>92</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="B135" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="C135" s="22" t="s">
+      <c r="C135" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="D135" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E135" s="26"/>
+      <c r="D135" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="61"/>
       <c r="F135" s="13" t="s">
         <v>341</v>
       </c>
       <c r="G135" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="H135" s="83"/>
-      <c r="I135" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A136" s="31"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="32"/>
+      <c r="H135" s="94"/>
+      <c r="I135" s="69" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="59"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="62"/>
       <c r="F136" s="13" t="s">
         <v>347</v>
       </c>
       <c r="G136" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="H136" s="84"/>
-      <c r="I136" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A137" s="21">
+      <c r="H136" s="95"/>
+      <c r="I136" s="71"/>
+    </row>
+    <row r="137" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="57">
         <v>93</v>
       </c>
-      <c r="B137" s="35" t="s">
+      <c r="B137" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="C137" s="22" t="s">
+      <c r="C137" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D137" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E137" s="22" t="s">
+      <c r="D137" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="60" t="s">
         <v>266</v>
       </c>
       <c r="F137" s="14" t="s">
@@ -5782,495 +5822,483 @@
       <c r="G137" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="H137" s="83"/>
-      <c r="I137" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
-      <c r="B138" s="37"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="26"/>
+      <c r="H137" s="94"/>
+      <c r="I137" s="69" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="59"/>
+      <c r="B138" s="81"/>
+      <c r="C138" s="62"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="61"/>
       <c r="F138" s="13" t="s">
         <v>390</v>
       </c>
       <c r="G138" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="H138" s="84"/>
-      <c r="I138" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A139" s="21">
+      <c r="H138" s="95"/>
+      <c r="I138" s="71"/>
+    </row>
+    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="57">
         <v>94</v>
       </c>
-      <c r="B139" s="35" t="s">
+      <c r="B139" s="80" t="s">
         <v>399</v>
       </c>
-      <c r="C139" s="22" t="s">
+      <c r="C139" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="D139" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="26"/>
+      <c r="D139" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="61"/>
       <c r="F139" s="14" t="s">
         <v>396</v>
       </c>
       <c r="G139" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="H139" s="83"/>
-      <c r="I139" s="9" t="s">
+      <c r="H139" s="94"/>
+      <c r="I139" s="69" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="73"/>
+      <c r="B140" s="85"/>
+      <c r="C140" s="75"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="75"/>
+      <c r="F140" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="G140" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="H140" s="103"/>
+      <c r="I140" s="71"/>
+    </row>
+    <row r="141" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A141" s="100">
+        <v>95</v>
+      </c>
+      <c r="B141" s="100" t="s">
+        <v>402</v>
+      </c>
+      <c r="C141" s="101" t="s">
+        <v>403</v>
+      </c>
+      <c r="D141" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="101" t="s">
+        <v>404</v>
+      </c>
+      <c r="F141" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="G141" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="H141" s="100"/>
+      <c r="I141" s="100" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A140" s="47"/>
-      <c r="B140" s="48"/>
-      <c r="C140" s="50"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="G140" s="54" t="s">
-        <v>401</v>
-      </c>
-      <c r="H140" s="89"/>
-      <c r="I140" s="9" t="s">
+    <row r="142" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="100"/>
+      <c r="B142" s="100"/>
+      <c r="C142" s="101"/>
+      <c r="D142" s="102"/>
+      <c r="E142" s="101"/>
+      <c r="F142" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="G142" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="H142" s="100"/>
+      <c r="I142" s="100"/>
+    </row>
+    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="100"/>
+      <c r="B143" s="100"/>
+      <c r="C143" s="101"/>
+      <c r="D143" s="102"/>
+      <c r="E143" s="101"/>
+      <c r="F143" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="G143" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="H143" s="100"/>
+      <c r="I143" s="100"/>
+    </row>
+    <row r="144" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" s="100"/>
+      <c r="B144" s="100"/>
+      <c r="C144" s="101"/>
+      <c r="D144" s="102"/>
+      <c r="E144" s="101"/>
+      <c r="F144" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="G144" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="H144" s="100"/>
+      <c r="I144" s="100"/>
+    </row>
+    <row r="145" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A145" s="100">
+        <v>96</v>
+      </c>
+      <c r="B145" s="100" t="s">
+        <v>414</v>
+      </c>
+      <c r="C145" s="101" t="s">
+        <v>415</v>
+      </c>
+      <c r="D145" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="101"/>
+      <c r="F145" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="G145" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="H145" s="100"/>
+      <c r="I145" s="100" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="90">
-        <v>95</v>
-      </c>
-      <c r="B141" s="90" t="s">
-        <v>402</v>
-      </c>
-      <c r="C141" s="91" t="s">
-        <v>403</v>
-      </c>
-      <c r="D141" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="91" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="100"/>
+      <c r="B146" s="100"/>
+      <c r="C146" s="101"/>
+      <c r="D146" s="102"/>
+      <c r="E146" s="101"/>
+      <c r="F146" s="100" t="s">
+        <v>416</v>
+      </c>
+      <c r="G146" s="101" t="s">
+        <v>417</v>
+      </c>
+      <c r="H146" s="100"/>
+      <c r="I146" s="100"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="100"/>
+      <c r="B147" s="100"/>
+      <c r="C147" s="101"/>
+      <c r="D147" s="102"/>
+      <c r="E147" s="101"/>
+      <c r="F147" s="100"/>
+      <c r="G147" s="101"/>
+      <c r="H147" s="100"/>
+      <c r="I147" s="100"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="100"/>
+      <c r="B148" s="100"/>
+      <c r="C148" s="101"/>
+      <c r="D148" s="102"/>
+      <c r="E148" s="101"/>
+      <c r="F148" s="100"/>
+      <c r="G148" s="101"/>
+      <c r="H148" s="100"/>
+      <c r="I148" s="100"/>
+    </row>
+    <row r="149" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A149" s="100">
+        <v>97</v>
+      </c>
+      <c r="B149" s="101" t="s">
+        <v>418</v>
+      </c>
+      <c r="C149" s="101" t="s">
+        <v>419</v>
+      </c>
+      <c r="D149" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="E149" s="101" t="s">
+        <v>420</v>
+      </c>
+      <c r="F149" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="G149" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="H149" s="106"/>
+      <c r="I149" s="106" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="100"/>
+      <c r="B150" s="101"/>
+      <c r="C150" s="101"/>
+      <c r="D150" s="102"/>
+      <c r="E150" s="101"/>
+      <c r="F150" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="G150" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="H150" s="107"/>
+      <c r="I150" s="107"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="100"/>
+      <c r="B151" s="101"/>
+      <c r="C151" s="101"/>
+      <c r="D151" s="102"/>
+      <c r="E151" s="101"/>
+      <c r="F151" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="G151" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="H151" s="108"/>
+      <c r="I151" s="108"/>
+    </row>
+    <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="100">
+        <v>98</v>
+      </c>
+      <c r="B152" s="101" t="s">
+        <v>425</v>
+      </c>
+      <c r="C152" s="101" t="s">
+        <v>426</v>
+      </c>
+      <c r="D152" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="E152" s="101" t="s">
+        <v>427</v>
+      </c>
+      <c r="F152" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="G152" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="H152" s="104" t="s">
+        <v>456</v>
+      </c>
+      <c r="I152" s="100" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="100"/>
+      <c r="B153" s="101"/>
+      <c r="C153" s="101"/>
+      <c r="D153" s="102"/>
+      <c r="E153" s="101"/>
+      <c r="F153" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="G153" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="H153" s="105"/>
+      <c r="I153" s="100"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="100"/>
+      <c r="B154" s="101"/>
+      <c r="C154" s="101"/>
+      <c r="D154" s="102"/>
+      <c r="E154" s="101"/>
+      <c r="F154" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="G154" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="H154" s="105"/>
+      <c r="I154" s="100"/>
+    </row>
+    <row r="155" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A155" s="100">
+        <v>99</v>
+      </c>
+      <c r="B155" s="100" t="s">
+        <v>430</v>
+      </c>
+      <c r="C155" s="101" t="s">
+        <v>431</v>
+      </c>
+      <c r="D155" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="101" t="s">
+        <v>432</v>
+      </c>
+      <c r="F155" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="G155" s="47"/>
+      <c r="H155" s="100"/>
+      <c r="I155" s="100" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="100"/>
+      <c r="B156" s="100"/>
+      <c r="C156" s="101"/>
+      <c r="D156" s="102"/>
+      <c r="E156" s="101"/>
+      <c r="F156" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="G156" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="H156" s="100"/>
+      <c r="I156" s="100"/>
+    </row>
+    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="100"/>
+      <c r="B157" s="100"/>
+      <c r="C157" s="101"/>
+      <c r="D157" s="102"/>
+      <c r="E157" s="101"/>
+      <c r="F157" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="G157" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="H157" s="100"/>
+      <c r="I157" s="100"/>
+    </row>
+    <row r="158" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A158" s="100">
+        <v>100</v>
+      </c>
+      <c r="B158" s="101" t="s">
+        <v>438</v>
+      </c>
+      <c r="C158" s="101" t="s">
+        <v>439</v>
+      </c>
+      <c r="D158" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="101" t="s">
+        <v>440</v>
+      </c>
+      <c r="F158" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="G158" s="47"/>
+      <c r="H158" s="100"/>
+      <c r="I158" s="100" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="100"/>
+      <c r="B159" s="101"/>
+      <c r="C159" s="101"/>
+      <c r="D159" s="102"/>
+      <c r="E159" s="101"/>
+      <c r="F159" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="G159" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="H159" s="100"/>
+      <c r="I159" s="100"/>
+    </row>
+    <row r="160" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="100"/>
+      <c r="B160" s="101"/>
+      <c r="C160" s="101"/>
+      <c r="D160" s="102"/>
+      <c r="E160" s="101"/>
+      <c r="F160" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="G160" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="H160" s="100"/>
+      <c r="I160" s="100"/>
+    </row>
+    <row r="161" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A161" s="100">
+        <v>101</v>
+      </c>
+      <c r="B161" s="101" t="s">
+        <v>446</v>
+      </c>
+      <c r="C161" s="101" t="s">
+        <v>447</v>
+      </c>
+      <c r="D161" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="101" t="s">
         <v>404</v>
       </c>
-      <c r="F141" s="80" t="s">
-        <v>405</v>
-      </c>
-      <c r="G141" s="79" t="s">
-        <v>406</v>
-      </c>
-      <c r="H141" s="90"/>
-      <c r="I141" s="90" t="s">
+      <c r="F161" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="G161" s="47"/>
+      <c r="H161" s="100"/>
+      <c r="I161" s="100" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A142" s="90"/>
-      <c r="B142" s="90"/>
-      <c r="C142" s="91"/>
-      <c r="D142" s="92"/>
-      <c r="E142" s="91"/>
-      <c r="F142" s="79" t="s">
-        <v>408</v>
-      </c>
-      <c r="G142" s="80" t="s">
-        <v>409</v>
-      </c>
-      <c r="H142" s="90"/>
-      <c r="I142" s="90"/>
-    </row>
-    <row r="143" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A143" s="90"/>
-      <c r="B143" s="90"/>
-      <c r="C143" s="91"/>
-      <c r="D143" s="92"/>
-      <c r="E143" s="91"/>
-      <c r="F143" s="79" t="s">
-        <v>410</v>
-      </c>
-      <c r="G143" s="80" t="s">
-        <v>411</v>
-      </c>
-      <c r="H143" s="90"/>
-      <c r="I143" s="90"/>
-    </row>
-    <row r="144" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A144" s="90"/>
-      <c r="B144" s="90"/>
-      <c r="C144" s="91"/>
-      <c r="D144" s="92"/>
-      <c r="E144" s="91"/>
-      <c r="F144" s="79" t="s">
-        <v>412</v>
-      </c>
-      <c r="G144" s="80" t="s">
-        <v>413</v>
-      </c>
-      <c r="H144" s="90"/>
-      <c r="I144" s="90"/>
-    </row>
-    <row r="145" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="90">
-        <v>96</v>
-      </c>
-      <c r="B145" s="90" t="s">
-        <v>414</v>
-      </c>
-      <c r="C145" s="91" t="s">
-        <v>415</v>
-      </c>
-      <c r="D145" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E145" s="91"/>
-      <c r="F145" s="80" t="s">
-        <v>405</v>
-      </c>
-      <c r="G145" s="79" t="s">
-        <v>406</v>
-      </c>
-      <c r="H145" s="90"/>
-      <c r="I145" s="90" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="90"/>
-      <c r="B146" s="90"/>
-      <c r="C146" s="91"/>
-      <c r="D146" s="92"/>
-      <c r="E146" s="91"/>
-      <c r="F146" s="90" t="s">
-        <v>416</v>
-      </c>
-      <c r="G146" s="91" t="s">
-        <v>417</v>
-      </c>
-      <c r="H146" s="90"/>
-      <c r="I146" s="90"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="90"/>
-      <c r="B147" s="90"/>
-      <c r="C147" s="91"/>
-      <c r="D147" s="92"/>
-      <c r="E147" s="91"/>
-      <c r="F147" s="90"/>
-      <c r="G147" s="91"/>
-      <c r="H147" s="90"/>
-      <c r="I147" s="90"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="90"/>
-      <c r="B148" s="90"/>
-      <c r="C148" s="91"/>
-      <c r="D148" s="92"/>
-      <c r="E148" s="91"/>
-      <c r="F148" s="90"/>
-      <c r="G148" s="91"/>
-      <c r="H148" s="90"/>
-      <c r="I148" s="90"/>
-    </row>
-    <row r="149" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="90">
-        <v>97</v>
-      </c>
-      <c r="B149" s="91" t="s">
-        <v>418</v>
-      </c>
-      <c r="C149" s="91" t="s">
-        <v>419</v>
-      </c>
-      <c r="D149" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="E149" s="91" t="s">
-        <v>420</v>
-      </c>
-      <c r="F149" s="80" t="s">
-        <v>421</v>
-      </c>
-      <c r="G149" s="79" t="s">
-        <v>422</v>
-      </c>
-      <c r="H149" s="93"/>
-      <c r="I149" s="93" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="90"/>
-      <c r="B150" s="91"/>
-      <c r="C150" s="91"/>
-      <c r="D150" s="92"/>
-      <c r="E150" s="91"/>
-      <c r="F150" s="79" t="s">
-        <v>423</v>
-      </c>
-      <c r="G150" s="79" t="s">
-        <v>422</v>
-      </c>
-      <c r="H150" s="94"/>
-      <c r="I150" s="94"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="90"/>
-      <c r="B151" s="91"/>
-      <c r="C151" s="91"/>
-      <c r="D151" s="92"/>
-      <c r="E151" s="91"/>
-      <c r="F151" s="79" t="s">
-        <v>424</v>
-      </c>
-      <c r="G151" s="79" t="s">
-        <v>422</v>
-      </c>
-      <c r="H151" s="95"/>
-      <c r="I151" s="95"/>
-    </row>
-    <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="90">
-        <v>98</v>
-      </c>
-      <c r="B152" s="91" t="s">
-        <v>425</v>
-      </c>
-      <c r="C152" s="91" t="s">
-        <v>426</v>
-      </c>
-      <c r="D152" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="E152" s="91" t="s">
-        <v>427</v>
-      </c>
-      <c r="F152" s="80" t="s">
-        <v>428</v>
-      </c>
-      <c r="G152" s="79" t="s">
-        <v>429</v>
-      </c>
-      <c r="H152" s="96"/>
-      <c r="I152" s="90" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="90"/>
-      <c r="B153" s="91"/>
-      <c r="C153" s="91"/>
-      <c r="D153" s="92"/>
-      <c r="E153" s="91"/>
-      <c r="F153" s="79" t="s">
-        <v>423</v>
-      </c>
-      <c r="G153" s="79" t="s">
-        <v>429</v>
-      </c>
-      <c r="H153" s="97"/>
-      <c r="I153" s="90"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="90"/>
-      <c r="B154" s="91"/>
-      <c r="C154" s="91"/>
-      <c r="D154" s="92"/>
-      <c r="E154" s="91"/>
-      <c r="F154" s="79" t="s">
-        <v>424</v>
-      </c>
-      <c r="G154" s="79" t="s">
-        <v>429</v>
-      </c>
-      <c r="H154" s="97"/>
-      <c r="I154" s="90"/>
-    </row>
-    <row r="155" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A155" s="90">
-        <v>99</v>
-      </c>
-      <c r="B155" s="90" t="s">
-        <v>430</v>
-      </c>
-      <c r="C155" s="91" t="s">
-        <v>431</v>
-      </c>
-      <c r="D155" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155" s="91" t="s">
-        <v>432</v>
-      </c>
-      <c r="F155" s="80" t="s">
-        <v>433</v>
-      </c>
-      <c r="G155" s="79"/>
-      <c r="H155" s="90"/>
-      <c r="I155" s="90" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A156" s="90"/>
-      <c r="B156" s="90"/>
-      <c r="C156" s="91"/>
-      <c r="D156" s="92"/>
-      <c r="E156" s="91"/>
-      <c r="F156" s="80" t="s">
-        <v>434</v>
-      </c>
-      <c r="G156" s="80" t="s">
-        <v>435</v>
-      </c>
-      <c r="H156" s="90"/>
-      <c r="I156" s="90"/>
-    </row>
-    <row r="157" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A157" s="90"/>
-      <c r="B157" s="90"/>
-      <c r="C157" s="91"/>
-      <c r="D157" s="92"/>
-      <c r="E157" s="91"/>
-      <c r="F157" s="79" t="s">
-        <v>436</v>
-      </c>
-      <c r="G157" s="80" t="s">
-        <v>437</v>
-      </c>
-      <c r="H157" s="90"/>
-      <c r="I157" s="90"/>
-    </row>
-    <row r="158" spans="1:9" ht="330" x14ac:dyDescent="0.25">
-      <c r="A158" s="90">
-        <v>100</v>
-      </c>
-      <c r="B158" s="91" t="s">
-        <v>438</v>
-      </c>
-      <c r="C158" s="91" t="s">
-        <v>439</v>
-      </c>
-      <c r="D158" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E158" s="91" t="s">
-        <v>440</v>
-      </c>
-      <c r="F158" s="80" t="s">
-        <v>441</v>
-      </c>
-      <c r="G158" s="79"/>
-      <c r="H158" s="90"/>
-      <c r="I158" s="90" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A159" s="90"/>
-      <c r="B159" s="91"/>
-      <c r="C159" s="91"/>
-      <c r="D159" s="92"/>
-      <c r="E159" s="91"/>
-      <c r="F159" s="80" t="s">
+    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="100"/>
+      <c r="B162" s="101"/>
+      <c r="C162" s="101"/>
+      <c r="D162" s="102"/>
+      <c r="E162" s="101"/>
+      <c r="F162" s="48" t="s">
         <v>442</v>
       </c>
-      <c r="G159" s="80" t="s">
+      <c r="G162" s="48" t="s">
         <v>443</v>
       </c>
-      <c r="H159" s="90"/>
-      <c r="I159" s="90"/>
-    </row>
-    <row r="160" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A160" s="90"/>
-      <c r="B160" s="91"/>
-      <c r="C160" s="91"/>
-      <c r="D160" s="92"/>
-      <c r="E160" s="91"/>
-      <c r="F160" s="79" t="s">
+      <c r="H162" s="100"/>
+      <c r="I162" s="100"/>
+    </row>
+    <row r="163" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="100"/>
+      <c r="B163" s="101"/>
+      <c r="C163" s="101"/>
+      <c r="D163" s="102"/>
+      <c r="E163" s="101"/>
+      <c r="F163" s="47" t="s">
         <v>444</v>
       </c>
-      <c r="G160" s="80" t="s">
-        <v>445</v>
-      </c>
-      <c r="H160" s="90"/>
-      <c r="I160" s="90"/>
-    </row>
-    <row r="161" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="90">
-        <v>101</v>
-      </c>
-      <c r="B161" s="91" t="s">
-        <v>446</v>
-      </c>
-      <c r="C161" s="91" t="s">
-        <v>447</v>
-      </c>
-      <c r="D161" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="91" t="s">
-        <v>404</v>
-      </c>
-      <c r="F161" s="80" t="s">
-        <v>421</v>
-      </c>
-      <c r="G161" s="79"/>
-      <c r="H161" s="90"/>
-      <c r="I161" s="90" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A162" s="90"/>
-      <c r="B162" s="91"/>
-      <c r="C162" s="91"/>
-      <c r="D162" s="92"/>
-      <c r="E162" s="91"/>
-      <c r="F162" s="80" t="s">
-        <v>442</v>
-      </c>
-      <c r="G162" s="80" t="s">
-        <v>443</v>
-      </c>
-      <c r="H162" s="90"/>
-      <c r="I162" s="90"/>
-    </row>
-    <row r="163" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A163" s="90"/>
-      <c r="B163" s="91"/>
-      <c r="C163" s="91"/>
-      <c r="D163" s="92"/>
-      <c r="E163" s="91"/>
-      <c r="F163" s="79" t="s">
-        <v>444</v>
-      </c>
-      <c r="G163" s="80" t="s">
+      <c r="G163" s="48" t="s">
         <v>448</v>
       </c>
-      <c r="H163" s="90"/>
-      <c r="I163" s="90"/>
+      <c r="H163" s="100"/>
+      <c r="I163" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="290">
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I26:I27"/>
+  <mergeCells count="294">
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="I38:I39"/>
@@ -6279,9 +6307,16 @@
     <mergeCell ref="I8:I11"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I20:I21"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I149:I151"/>
+    <mergeCell ref="I141:I144"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="I54:I55"/>
     <mergeCell ref="A161:A163"/>
     <mergeCell ref="B161:B163"/>
     <mergeCell ref="C161:C163"/>
@@ -6302,7 +6337,6 @@
     <mergeCell ref="D155:D157"/>
     <mergeCell ref="E155:E157"/>
     <mergeCell ref="H155:H157"/>
-    <mergeCell ref="I149:I151"/>
     <mergeCell ref="A152:A154"/>
     <mergeCell ref="B152:B154"/>
     <mergeCell ref="C152:C154"/>
@@ -6316,7 +6350,6 @@
     <mergeCell ref="D149:D151"/>
     <mergeCell ref="E149:E151"/>
     <mergeCell ref="H149:H151"/>
-    <mergeCell ref="I141:I144"/>
     <mergeCell ref="A145:A148"/>
     <mergeCell ref="B145:B148"/>
     <mergeCell ref="C145:C148"/>
@@ -6332,6 +6365,7 @@
     <mergeCell ref="D141:D144"/>
     <mergeCell ref="E141:E148"/>
     <mergeCell ref="H141:H144"/>
+    <mergeCell ref="H135:H136"/>
     <mergeCell ref="A137:A138"/>
     <mergeCell ref="B137:B138"/>
     <mergeCell ref="C137:C138"/>
@@ -6342,20 +6376,6 @@
     <mergeCell ref="B139:B140"/>
     <mergeCell ref="C139:C140"/>
     <mergeCell ref="D139:D140"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
     <mergeCell ref="H128:H129"/>
     <mergeCell ref="C130:C132"/>
     <mergeCell ref="H124:H125"/>
@@ -6364,16 +6384,24 @@
     <mergeCell ref="C126:C127"/>
     <mergeCell ref="D126:D127"/>
     <mergeCell ref="H126:H127"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="H133:H134"/>
     <mergeCell ref="E121:E136"/>
     <mergeCell ref="A124:A125"/>
     <mergeCell ref="B124:B125"/>
     <mergeCell ref="C124:C125"/>
     <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="B108:B109"/>
     <mergeCell ref="C108:C109"/>
@@ -6384,6 +6412,11 @@
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
     <mergeCell ref="E98:E103"/>
     <mergeCell ref="A105:A106"/>
     <mergeCell ref="B105:B106"/>
@@ -6525,15 +6558,6 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
@@ -6551,9 +6575,27 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3:I8 I12:I13 I15:I16 I18:I20 I22 I24 I26 I28 I30 I32:I38 I40 I42 I45 I48 I51 I54 I56 I58 I60:I62 I64:I67 I69:I1048576" xr:uid="{33B8FC7A-4DE1-4088-AF44-51B123282A6C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I13 I15:I16 I1:I8 I32:I38 I18:I19 I21:I22 I30 I27:I28 I40 I42 I45 I48 I51 I54 I56 I58 I24:I25 I141:I1048576 I139 I137 I135 I130:I133 I126 I128 I60:I124" xr:uid="{33B8FC7A-4DE1-4088-AF44-51B123282A6C}">
       <formula1>$L$2:$L$4</formula1>
     </dataValidation>
   </dataValidations>
